--- a/QueryCau1.xlsx
+++ b/QueryCau1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57C6CFCD-A964-421C-B4CC-E1383213BC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60463734-30CB-4DEB-9EC8-DE47B4BCF725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{C3A90EE6-BF7E-4FC4-B1BE-069A29357C09}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{97E08043-73B5-4BD1-9D01-4F619D8323BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp81CA" sheetId="1" r:id="rId1"/>
+    <sheet name="tmpB736" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A8164D0D-3988-4FC0-BF8A-6F57A41C1D5F}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmp81CA.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{F89C85DB-89ED-4F54-9BA6-13B681B9BA0D}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpB736.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -617,26 +617,26 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.192317013891" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{FBDD9E5E-7533-4102-9EDB-A98084319726}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.386403703706" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5A2E1AF3-719F-4822-A811-7354CFC21E8D}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
-    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="45" level="32767"/>
-    <cacheField name="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" numFmtId="0" hierarchy="53">
+    <cacheField name="[Measures].[Total Accidents]" caption="Total Accidents" numFmtId="0" hierarchy="47" level="32767"/>
+    <cacheField name="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" numFmtId="0" hierarchy="59">
       <sharedItems count="10">
-        <s v="[DIM LOCATION].[STATE].&amp;[CA]" c="CA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[FL]" c="FL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MN]" c="MN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NC]" c="NC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NY]" c="NY"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OR]" c="OR"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[PA]" c="PA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[SC]" c="SC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[TX]" c="TX"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[VA]" c="VA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CA]&amp;[US]" c="CA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[FL]&amp;[US]" c="FL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MN]&amp;[US]" c="MN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NC]&amp;[US]" c="NC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NY]&amp;[US]" c="NY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OR]&amp;[US]" c="OR"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[PA]&amp;[US]" c="PA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[SC]&amp;[US]" c="SC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[TX]&amp;[US]" c="TX"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[VA]&amp;[US]" c="VA"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -652,6 +652,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -660,6 +661,7 @@
     <cacheHierarchy uniqueName="[DIM LOCATION].[STATE]" caption="STATE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STATE].[All]" allUniqueName="[DIM LOCATION].[STATE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
@@ -691,10 +693,14 @@
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="1">
         <fieldUsage x="1"/>
       </fieldsUsage>
@@ -702,15 +708,13 @@
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
           <x14:cacheHierarchy>
             <x14:setLevels count="1">
-              <x14:setLevel hierarchy="20"/>
+              <x14:setLevel hierarchy="21"/>
             </x14:setLevels>
           </x14:cacheHierarchy>
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -738,7 +742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8EF4DE44-A911-4A4B-9AE3-7A683DD9A23B}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A863560-6754-473A-9C91-51922D1D8553}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -798,7 +802,9 @@
   <dataFields count="1">
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -849,6 +855,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -859,7 +867,7 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="53"/>
+    <rowHierarchyUsage hierarchyUsage="59"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1188,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E22B30-2CD6-4926-A5CE-BFD573C66508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F508D04C-9F3E-4B5E-8291-7BE55A0014E1}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
